--- a/Upload Data/Reading Exercise/Part 5/Test1.xlsx
+++ b/Upload Data/Reading Exercise/Part 5/Test1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\Upload Data\Reading Exercise\Part 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC07F2B5-DF0A-42AB-8BE0-AAECC2A5DF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004C371C-CE98-4518-8679-2A5D63CF5399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
